--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>701951.7442320171</v>
+        <v>697440.5476144631</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7380604.917431149</v>
+        <v>7380604.91743115</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5030512.420514839</v>
+        <v>5030512.42051484</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.9374259387883</v>
+        <v>356.6373930917317</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.49486008622741</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U11" t="n">
         <v>255.6139801279633</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>72.23345570768778</v>
@@ -1584,19 +1584,19 @@
         <v>237.135521820955</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>50.80014729700734</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>96.62712702034683</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H14" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.49486008622741</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V14" t="n">
-        <v>334.3734738461816</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>140.8826904530323</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.06553828449192</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.49681349569634</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7119583655305</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I16" t="n">
         <v>72.23345570768778</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.890442023638961</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>325.4869313300529</v>
       </c>
       <c r="W17" t="n">
-        <v>199.0795485579614</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.07175909649062</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>154.8408504449827</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>6.890442023638961</v>
       </c>
       <c r="S19" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.135521820955</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>362.8098557926329</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.4948600862274</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6139801279633</v>
+        <v>78.94604759006711</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,16 +2247,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.890442023638947</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.055145824462</v>
+        <v>114.0571002246218</v>
       </c>
       <c r="T22" t="n">
         <v>237.135521820955</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>171.6295150970283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>362.8098557926329</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.49486008622741</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T23" t="n">
         <v>210.1046684345147</v>
@@ -2377,16 +2377,16 @@
         <v>255.6139801279633</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>9.949970311497308</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.15308688214544</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7119583655305</v>
+        <v>121.2918298410297</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.31233852465068</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.328419516589</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.49486008622741</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>53.03689618714289</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9.140363614524398</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>6.890442023638961</v>
       </c>
       <c r="S28" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.135521820955</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>85.837389759186</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>143.9304897260035</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>7.181046355276369</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,7 +2961,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>100.8461255265601</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>6.890442023638961</v>
       </c>
       <c r="S31" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>175.8310124447526</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>318.5050892918352</v>
       </c>
       <c r="C32" t="n">
-        <v>284.0575801854225</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.49486008622741</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.23345570768778</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.890442023638961</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.135521820955</v>
+        <v>228.6139767997037</v>
       </c>
       <c r="U34" t="n">
         <v>277.3344708341617</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.091140878676</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>13.84835583330166</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U35" t="n">
-        <v>196.1765752305242</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>49.1213569752699</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I37" t="n">
-        <v>72.23345570768778</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S37" t="n">
-        <v>153.055145824462</v>
+        <v>99.39626980923164</v>
       </c>
       <c r="T37" t="n">
         <v>237.135521820955</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>365.5430536151433</v>
       </c>
       <c r="C38" t="n">
-        <v>371.666316934634</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.49486008622741</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>153.055145824462</v>
       </c>
       <c r="T40" t="n">
-        <v>184.3192546412665</v>
+        <v>68.66838895160291</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>318.5050892918352</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3793,7 +3793,7 @@
         <v>58.4948600862274</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>114.7193223565916</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>99.69540539601847</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>72.23345570768778</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T43" t="n">
         <v>237.135521820955</v>
@@ -3957,13 +3957,13 @@
         <v>277.3344708341617</v>
       </c>
       <c r="V43" t="n">
-        <v>2.087633924622878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,19 +3982,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.6388712005896</v>
       </c>
       <c r="E44" t="n">
-        <v>9.035418078285362</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>58.4948600862274</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>145.5223851193576</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4191,19 +4191,19 @@
         <v>237.135521820955</v>
       </c>
       <c r="U46" t="n">
-        <v>172.5186068270025</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>688.9888890675825</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="C11" t="n">
-        <v>688.9888890675825</v>
+        <v>402.4955028416779</v>
       </c>
       <c r="D11" t="n">
-        <v>688.9888890675825</v>
+        <v>402.4955028416779</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6076507455741</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="F11" t="n">
-        <v>444.6076507455741</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G11" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H11" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I11" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J11" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983721</v>
       </c>
       <c r="K11" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L11" t="n">
         <v>701.0562546154874</v>
@@ -5059,7 +5059,7 @@
         <v>1607.71019061354</v>
       </c>
       <c r="P11" t="n">
-        <v>1850.57498453746</v>
+        <v>1850.574984537459</v>
       </c>
       <c r="Q11" t="n">
         <v>2025.128259099849</v>
@@ -5068,25 +5068,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S11" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T11" t="n">
-        <v>2112.785591996434</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U11" t="n">
-        <v>1854.589652473239</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="V11" t="n">
-        <v>1497.100237599488</v>
+        <v>1225.787582528031</v>
       </c>
       <c r="W11" t="n">
-        <v>1100.708887899835</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="X11" t="n">
-        <v>688.9888890675825</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="Y11" t="n">
-        <v>688.9888890675825</v>
+        <v>829.3962328283778</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G12" t="n">
-        <v>85.36348496437887</v>
+        <v>85.36348496437886</v>
       </c>
       <c r="H12" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I12" t="n">
         <v>62.12254544355309</v>
       </c>
       <c r="J12" t="n">
-        <v>140.1681348405093</v>
+        <v>420.2134976453282</v>
       </c>
       <c r="K12" t="n">
-        <v>286.2606370562918</v>
+        <v>566.3059998611106</v>
       </c>
       <c r="L12" t="n">
-        <v>497.2478445063383</v>
+        <v>770.2728109625061</v>
       </c>
       <c r="M12" t="n">
-        <v>738.4129836467014</v>
+        <v>1011.437950102869</v>
       </c>
       <c r="N12" t="n">
         <v>1261.327417665819</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.815039475114</v>
+        <v>444.7437771337264</v>
       </c>
       <c r="C13" t="n">
-        <v>917.8424763540297</v>
+        <v>444.7437771337264</v>
       </c>
       <c r="D13" t="n">
-        <v>754.5257034808004</v>
+        <v>281.4270042604971</v>
       </c>
       <c r="E13" t="n">
-        <v>588.3174976336539</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="F13" t="n">
-        <v>416.4557234082143</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="G13" t="n">
-        <v>251.0901088975774</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H13" t="n">
         <v>115.2187984133507</v>
       </c>
       <c r="I13" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="J13" t="n">
-        <v>83.59006134693922</v>
+        <v>161.5117779951601</v>
       </c>
       <c r="K13" t="n">
-        <v>164.3334912372779</v>
+        <v>489.5378169995208</v>
       </c>
       <c r="L13" t="n">
-        <v>401.4024511048234</v>
+        <v>779.1047754080263</v>
       </c>
       <c r="M13" t="n">
-        <v>924.3168851239408</v>
+        <v>1302.019209427144</v>
       </c>
       <c r="N13" t="n">
-        <v>1037.462734774884</v>
+        <v>1415.165059078087</v>
       </c>
       <c r="O13" t="n">
         <v>1516.372687468062</v>
@@ -5226,25 +5226,25 @@
         <v>2105.825549548314</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.224392149868</v>
+        <v>1951.224392149867</v>
       </c>
       <c r="T13" t="n">
-        <v>1711.693562027691</v>
+        <v>1711.69356202769</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.693562027691</v>
+        <v>1660.380281929703</v>
       </c>
       <c r="V13" t="n">
-        <v>1429.982094635719</v>
+        <v>1378.668814537732</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.378936029309</v>
+        <v>1103.816410710245</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.815039475114</v>
+        <v>861.25251415605</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.815039475114</v>
+        <v>634.909745845792</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.7504016234184</v>
+        <v>1295.708772408316</v>
       </c>
       <c r="C14" t="n">
-        <v>745.7504016234184</v>
+        <v>1295.708772408316</v>
       </c>
       <c r="D14" t="n">
-        <v>745.7504016234184</v>
+        <v>1295.708772408316</v>
       </c>
       <c r="E14" t="n">
-        <v>319.7734617712759</v>
+        <v>869.7318325561739</v>
       </c>
       <c r="F14" t="n">
-        <v>319.7734617712759</v>
+        <v>444.6076507455741</v>
       </c>
       <c r="G14" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H14" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I14" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J14" t="n">
-        <v>219.3099931983722</v>
+        <v>219.309993198372</v>
       </c>
       <c r="K14" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0562546154877</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M14" t="n">
         <v>1005.977266623261</v>
@@ -5305,25 +5305,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S14" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T14" t="n">
-        <v>1900.558654183792</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U14" t="n">
-        <v>1900.558654183792</v>
+        <v>1795.503935214423</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.807670500781</v>
+        <v>1438.014520340672</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.807670500781</v>
+        <v>1438.014520340672</v>
       </c>
       <c r="X14" t="n">
-        <v>1151.087671668528</v>
+        <v>1295.708772408316</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.7504016234184</v>
+        <v>1295.708772408316</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I15" t="n">
-        <v>62.12254544355309</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J15" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604226</v>
       </c>
       <c r="K15" t="n">
-        <v>286.2606370562918</v>
+        <v>460.850499576205</v>
       </c>
       <c r="L15" t="n">
-        <v>490.2274481576873</v>
+        <v>664.8173106776005</v>
       </c>
       <c r="M15" t="n">
-        <v>731.3925872980503</v>
+        <v>905.9824498179637</v>
       </c>
       <c r="N15" t="n">
-        <v>981.2820548609998</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O15" t="n">
-        <v>1206.271381091132</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P15" t="n">
-        <v>1383.703527535662</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q15" t="n">
         <v>1668.790211669508</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.9711658698029</v>
+        <v>462.4121006765944</v>
       </c>
       <c r="C16" t="n">
-        <v>781.9711658698029</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="D16" t="n">
-        <v>618.6543929965736</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="E16" t="n">
-        <v>452.4461871494271</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="F16" t="n">
-        <v>280.5844129239875</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="G16" t="n">
-        <v>115.2187984133507</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H16" t="n">
         <v>115.2187984133507</v>
@@ -5439,16 +5439,16 @@
         <v>161.5117779951601</v>
       </c>
       <c r="K16" t="n">
-        <v>242.2552078854988</v>
+        <v>489.5378169995208</v>
       </c>
       <c r="L16" t="n">
-        <v>401.4024511048231</v>
+        <v>974.1101939869819</v>
       </c>
       <c r="M16" t="n">
-        <v>924.3168851239403</v>
+        <v>1088.703979774532</v>
       </c>
       <c r="N16" t="n">
-        <v>1037.462734774884</v>
+        <v>1201.849829425475</v>
       </c>
       <c r="O16" t="n">
         <v>1516.372687468062</v>
@@ -5460,28 +5460,28 @@
         <v>2112.785591996434</v>
       </c>
       <c r="R16" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S16" t="n">
-        <v>2105.825549548314</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T16" t="n">
-        <v>2105.825549548314</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="U16" t="n">
-        <v>1825.689720422898</v>
+        <v>1678.048605472571</v>
       </c>
       <c r="V16" t="n">
-        <v>1543.978253030926</v>
+        <v>1396.3371380806</v>
       </c>
       <c r="W16" t="n">
-        <v>1269.125849203439</v>
+        <v>1121.484734253113</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.561952649245</v>
+        <v>878.920837698918</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.2191843389867</v>
+        <v>652.5780693886601</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.6725144655281</v>
+        <v>893.356833502671</v>
       </c>
       <c r="C17" t="n">
-        <v>890.6725144655281</v>
+        <v>893.356833502671</v>
       </c>
       <c r="D17" t="n">
-        <v>467.3798936505285</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E17" t="n">
         <v>467.3798936505285</v>
       </c>
       <c r="F17" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="G17" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="H17" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="I17" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372554</v>
       </c>
       <c r="J17" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983724</v>
       </c>
       <c r="K17" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740998</v>
       </c>
       <c r="L17" t="n">
         <v>701.0562546154877</v>
@@ -5527,13 +5527,13 @@
         <v>1005.977266623261</v>
       </c>
       <c r="N17" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251985</v>
       </c>
       <c r="O17" t="n">
         <v>1607.71019061354</v>
       </c>
       <c r="P17" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q17" t="n">
         <v>2025.128259099849</v>
@@ -5542,25 +5542,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S17" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T17" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U17" t="n">
-        <v>1854.589652473238</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="V17" t="n">
-        <v>1497.100237599488</v>
+        <v>1724.925196626454</v>
       </c>
       <c r="W17" t="n">
-        <v>1296.009784510638</v>
+        <v>1724.925196626454</v>
       </c>
       <c r="X17" t="n">
-        <v>1296.009784510638</v>
+        <v>1313.205197794201</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.6725144655281</v>
+        <v>1313.205197794201</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G18" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H18" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="I18" t="n">
         <v>85.57985128796494</v>
       </c>
       <c r="J18" t="n">
-        <v>420.2134976453282</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K18" t="n">
-        <v>566.3059998611106</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L18" t="n">
-        <v>770.2728109625061</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M18" t="n">
-        <v>1011.437950102869</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N18" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R18" t="n">
         <v>1815.507845353902</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>442.2639964165557</v>
+        <v>370.5223855047447</v>
       </c>
       <c r="C19" t="n">
-        <v>270.2914332954717</v>
+        <v>370.5223855047447</v>
       </c>
       <c r="D19" t="n">
-        <v>106.9746604222424</v>
+        <v>370.5223855047447</v>
       </c>
       <c r="E19" t="n">
-        <v>106.9746604222424</v>
+        <v>370.5223855047447</v>
       </c>
       <c r="F19" t="n">
-        <v>42.25571183992867</v>
+        <v>198.6606112793051</v>
       </c>
       <c r="G19" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="H19" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="I19" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="J19" t="n">
         <v>83.59006134693922</v>
@@ -5682,16 +5682,16 @@
         <v>896.188477338761</v>
       </c>
       <c r="M19" t="n">
-        <v>1419.102911357878</v>
+        <v>1010.782263126311</v>
       </c>
       <c r="N19" t="n">
-        <v>1532.248761008822</v>
+        <v>1123.928112777254</v>
       </c>
       <c r="O19" t="n">
-        <v>1667.746184845961</v>
+        <v>1602.838065470432</v>
       </c>
       <c r="P19" t="n">
-        <v>2064.005429355621</v>
+        <v>1999.097309980092</v>
       </c>
       <c r="Q19" t="n">
         <v>2112.785591996434</v>
@@ -5700,25 +5700,25 @@
         <v>2105.825549548314</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.224392149867</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="T19" t="n">
-        <v>1711.69356202769</v>
+        <v>1866.294719426137</v>
       </c>
       <c r="U19" t="n">
-        <v>1431.557732902274</v>
+        <v>1586.158890300721</v>
       </c>
       <c r="V19" t="n">
-        <v>1149.846265510303</v>
+        <v>1304.44742290875</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9938616828163</v>
+        <v>1029.595019081263</v>
       </c>
       <c r="X19" t="n">
-        <v>632.4299651286213</v>
+        <v>787.0311225270683</v>
       </c>
       <c r="Y19" t="n">
-        <v>632.4299651286213</v>
+        <v>560.6883542168104</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.730313650669</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="C20" t="n">
-        <v>408.730313650669</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="D20" t="n">
-        <v>408.730313650669</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="E20" t="n">
-        <v>408.730313650669</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="F20" t="n">
         <v>42.25571183992868</v>
@@ -5779,25 +5779,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S20" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="T20" t="n">
-        <v>1841.472936924977</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="U20" t="n">
-        <v>1583.276997401782</v>
+        <v>2033.042109582225</v>
       </c>
       <c r="V20" t="n">
-        <v>1225.787582528031</v>
+        <v>1675.552694708474</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.787582528031</v>
+        <v>1279.161345008821</v>
       </c>
       <c r="X20" t="n">
-        <v>814.0675836957787</v>
+        <v>867.4413461765685</v>
       </c>
       <c r="Y20" t="n">
-        <v>408.730313650669</v>
+        <v>462.1040761314587</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.25571183992868</v>
       </c>
       <c r="I21" t="n">
-        <v>62.12254544355311</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J21" t="n">
-        <v>140.1681348405093</v>
+        <v>314.757997360422</v>
       </c>
       <c r="K21" t="n">
-        <v>286.2606370562919</v>
+        <v>460.8504995762045</v>
       </c>
       <c r="L21" t="n">
-        <v>490.2274481576874</v>
+        <v>664.8173106776001</v>
       </c>
       <c r="M21" t="n">
-        <v>731.3925872980507</v>
+        <v>905.9824498179632</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.307021317168</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O21" t="n">
-        <v>1479.296347547301</v>
+        <v>1380.861243611045</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R21" t="n">
         <v>1815.507845353902</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.7532536813884</v>
+        <v>678.7819728291056</v>
       </c>
       <c r="C22" t="n">
-        <v>371.7806905603044</v>
+        <v>506.8094097080216</v>
       </c>
       <c r="D22" t="n">
-        <v>208.4639176870751</v>
+        <v>343.4926368347923</v>
       </c>
       <c r="E22" t="n">
-        <v>42.25571183992868</v>
+        <v>343.4926368347923</v>
       </c>
       <c r="F22" t="n">
-        <v>42.25571183992868</v>
+        <v>343.4926368347923</v>
       </c>
       <c r="G22" t="n">
-        <v>42.25571183992868</v>
+        <v>178.1270223241553</v>
       </c>
       <c r="H22" t="n">
         <v>42.25571183992868</v>
@@ -5910,22 +5910,22 @@
         <v>42.25571183992868</v>
       </c>
       <c r="J22" t="n">
-        <v>161.5117779951601</v>
+        <v>127.1988195496158</v>
       </c>
       <c r="K22" t="n">
-        <v>242.2552078854988</v>
+        <v>207.9422494399545</v>
       </c>
       <c r="L22" t="n">
-        <v>726.82758487296</v>
+        <v>316.1257328362507</v>
       </c>
       <c r="M22" t="n">
-        <v>841.4213706605096</v>
+        <v>839.0401668553681</v>
       </c>
       <c r="N22" t="n">
-        <v>1352.600143153333</v>
+        <v>1350.218939348192</v>
       </c>
       <c r="O22" t="n">
-        <v>1516.372687468062</v>
+        <v>1829.12889204137</v>
       </c>
       <c r="P22" t="n">
         <v>1912.631931977722</v>
@@ -5934,28 +5934,28 @@
         <v>2112.785591996434</v>
       </c>
       <c r="R22" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S22" t="n">
-        <v>1951.224392149868</v>
+        <v>1997.576399850351</v>
       </c>
       <c r="T22" t="n">
-        <v>1711.693562027691</v>
+        <v>1758.045569728175</v>
       </c>
       <c r="U22" t="n">
-        <v>1431.557732902275</v>
+        <v>1477.909740602759</v>
       </c>
       <c r="V22" t="n">
-        <v>1149.846265510304</v>
+        <v>1196.198273210787</v>
       </c>
       <c r="W22" t="n">
-        <v>976.4831189476489</v>
+        <v>921.3458693833005</v>
       </c>
       <c r="X22" t="n">
-        <v>733.919222393454</v>
+        <v>678.7819728291056</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.919222393454</v>
+        <v>678.7819728291056</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.730313650669</v>
+        <v>1573.226522339663</v>
       </c>
       <c r="C23" t="n">
-        <v>408.730313650669</v>
+        <v>1573.226522339663</v>
       </c>
       <c r="D23" t="n">
-        <v>408.730313650669</v>
+        <v>1573.226522339663</v>
       </c>
       <c r="E23" t="n">
-        <v>408.730313650669</v>
+        <v>1147.249582487521</v>
       </c>
       <c r="F23" t="n">
-        <v>42.25571183992868</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="G23" t="n">
-        <v>42.25571183992868</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H23" t="n">
         <v>42.25571183992868</v>
@@ -5989,19 +5989,19 @@
         <v>83.13735652372543</v>
       </c>
       <c r="J23" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983725</v>
       </c>
       <c r="K23" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740999</v>
       </c>
       <c r="L23" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154879</v>
       </c>
       <c r="M23" t="n">
         <v>1005.977266623261</v>
       </c>
       <c r="N23" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251985</v>
       </c>
       <c r="O23" t="n">
         <v>1607.71019061354</v>
@@ -6025,16 +6025,16 @@
         <v>1583.276997401782</v>
       </c>
       <c r="V23" t="n">
-        <v>1225.787582528031</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.787582528031</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="X23" t="n">
-        <v>814.0675836957787</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="Y23" t="n">
-        <v>408.730313650669</v>
+        <v>1573.226522339663</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>42.25571183992868</v>
       </c>
       <c r="I24" t="n">
-        <v>62.12254544355309</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J24" t="n">
-        <v>420.2134976453282</v>
+        <v>420.2134976453281</v>
       </c>
       <c r="K24" t="n">
         <v>566.3059998611106</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>442.2639964165562</v>
+        <v>874.9938616828167</v>
       </c>
       <c r="C25" t="n">
-        <v>442.2639964165562</v>
+        <v>874.9938616828167</v>
       </c>
       <c r="D25" t="n">
-        <v>379.4831005760052</v>
+        <v>711.6770888095874</v>
       </c>
       <c r="E25" t="n">
-        <v>379.4831005760052</v>
+        <v>545.4688829624409</v>
       </c>
       <c r="F25" t="n">
-        <v>207.6213263505656</v>
+        <v>373.6071087370013</v>
       </c>
       <c r="G25" t="n">
-        <v>42.25571183992868</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H25" t="n">
-        <v>42.25571183992868</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I25" t="n">
         <v>42.25571183992868</v>
@@ -6150,13 +6150,13 @@
         <v>161.5117779951601</v>
       </c>
       <c r="K25" t="n">
-        <v>242.2552078854988</v>
+        <v>489.5378169995208</v>
       </c>
       <c r="L25" t="n">
-        <v>411.690176494511</v>
+        <v>597.7213003958169</v>
       </c>
       <c r="M25" t="n">
-        <v>526.2839622820607</v>
+        <v>712.3150861833666</v>
       </c>
       <c r="N25" t="n">
         <v>1037.462734774884</v>
@@ -6189,10 +6189,10 @@
         <v>874.9938616828167</v>
       </c>
       <c r="X25" t="n">
-        <v>632.4299651286218</v>
+        <v>874.9938616828167</v>
       </c>
       <c r="Y25" t="n">
-        <v>632.4299651286218</v>
+        <v>874.9938616828167</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1145.418021491921</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="C26" t="n">
-        <v>1145.418021491921</v>
+        <v>1573.226522339663</v>
       </c>
       <c r="D26" t="n">
-        <v>722.1254006769213</v>
+        <v>1573.226522339663</v>
       </c>
       <c r="E26" t="n">
-        <v>722.1254006769213</v>
+        <v>1147.249582487521</v>
       </c>
       <c r="F26" t="n">
         <v>722.1254006769213</v>
@@ -6220,58 +6220,58 @@
         <v>319.7734617712759</v>
       </c>
       <c r="H26" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I26" t="n">
-        <v>83.13735652372532</v>
+        <v>83.13735652372551</v>
       </c>
       <c r="J26" t="n">
-        <v>219.3099931983721</v>
+        <v>219.3099931983729</v>
       </c>
       <c r="K26" t="n">
-        <v>431.6424856740995</v>
+        <v>431.6424856741002</v>
       </c>
       <c r="L26" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154882</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.977266623262</v>
       </c>
       <c r="N26" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251985</v>
       </c>
       <c r="O26" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.710190613541</v>
       </c>
       <c r="P26" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q26" t="n">
-        <v>2025.128259099848</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R26" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S26" t="n">
-        <v>2053.699874737617</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="T26" t="n">
-        <v>2053.699874737617</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="U26" t="n">
-        <v>2053.699874737617</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="V26" t="n">
-        <v>2053.699874737617</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="W26" t="n">
-        <v>2053.699874737617</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="X26" t="n">
-        <v>1641.979875905365</v>
+        <v>2000.127252326363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1236.642605860255</v>
+        <v>2000.127252326363</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G27" t="n">
-        <v>85.36348496437884</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H27" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I27" t="n">
-        <v>62.12254544355308</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K27" t="n">
-        <v>286.2606370562918</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L27" t="n">
-        <v>490.2274481576873</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M27" t="n">
-        <v>731.3925872980503</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N27" t="n">
-        <v>981.2820548609998</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O27" t="n">
-        <v>1206.271381091132</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P27" t="n">
         <v>1558.293390055575</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.7806905603044</v>
+        <v>560.6883542168108</v>
       </c>
       <c r="C28" t="n">
-        <v>371.7806905603044</v>
+        <v>388.7157910957268</v>
       </c>
       <c r="D28" t="n">
-        <v>208.4639176870751</v>
+        <v>388.7157910957268</v>
       </c>
       <c r="E28" t="n">
-        <v>42.25571183992867</v>
+        <v>388.7157910957268</v>
       </c>
       <c r="F28" t="n">
-        <v>42.25571183992867</v>
+        <v>216.8540168702872</v>
       </c>
       <c r="G28" t="n">
-        <v>42.25571183992867</v>
+        <v>51.48840235965031</v>
       </c>
       <c r="H28" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I28" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J28" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K28" t="n">
-        <v>242.2552078854987</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L28" t="n">
-        <v>350.4386912817948</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M28" t="n">
-        <v>873.353125300912</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N28" t="n">
-        <v>1384.531897793735</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O28" t="n">
-        <v>1516.372687468061</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P28" t="n">
-        <v>1912.631931977721</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q28" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R28" t="n">
-        <v>2105.825549548313</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.224392149867</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="T28" t="n">
-        <v>1711.69356202769</v>
+        <v>1866.294719426138</v>
       </c>
       <c r="U28" t="n">
-        <v>1431.557732902274</v>
+        <v>1586.158890300722</v>
       </c>
       <c r="V28" t="n">
-        <v>1149.846265510303</v>
+        <v>1304.447422908751</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9938616828158</v>
+        <v>1029.595019081264</v>
       </c>
       <c r="X28" t="n">
-        <v>788.2894275826279</v>
+        <v>787.0311225270688</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.94665927237</v>
+        <v>560.6883542168108</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.485320584417</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="C29" t="n">
-        <v>870.5845905977166</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="D29" t="n">
-        <v>870.5845905977166</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="E29" t="n">
-        <v>444.6076507455741</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F29" t="n">
-        <v>444.6076507455741</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G29" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H29" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I29" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372566</v>
       </c>
       <c r="J29" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983725</v>
       </c>
       <c r="K29" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740999</v>
       </c>
       <c r="L29" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154878</v>
       </c>
       <c r="M29" t="n">
         <v>1005.977266623261</v>
       </c>
       <c r="N29" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251985</v>
       </c>
       <c r="O29" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613541</v>
       </c>
       <c r="P29" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q29" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R29" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S29" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="T29" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="U29" t="n">
-        <v>1854.589652473238</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="V29" t="n">
-        <v>1854.589652473238</v>
+        <v>1696.210459863868</v>
       </c>
       <c r="W29" t="n">
-        <v>1854.589652473238</v>
+        <v>1299.819110164215</v>
       </c>
       <c r="X29" t="n">
-        <v>1442.869653640986</v>
+        <v>1292.565527987168</v>
       </c>
       <c r="Y29" t="n">
-        <v>1442.869653640986</v>
+        <v>887.2282579420586</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G30" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H30" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I30" t="n">
-        <v>62.12254544355309</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J30" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K30" t="n">
-        <v>286.2606370562918</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L30" t="n">
-        <v>490.2274481576873</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M30" t="n">
-        <v>731.3925872980503</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N30" t="n">
-        <v>981.2820548609998</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O30" t="n">
-        <v>1206.271381091132</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P30" t="n">
         <v>1558.293390055575</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>645.6180269405401</v>
+        <v>715.615027906828</v>
       </c>
       <c r="C31" t="n">
-        <v>473.645463819456</v>
+        <v>543.642464785744</v>
       </c>
       <c r="D31" t="n">
-        <v>310.3286909462267</v>
+        <v>380.3256919125147</v>
       </c>
       <c r="E31" t="n">
-        <v>144.1204850990803</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="F31" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G31" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H31" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I31" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J31" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K31" t="n">
-        <v>489.5378169995208</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L31" t="n">
-        <v>779.1047754080263</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M31" t="n">
-        <v>1302.019209427144</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N31" t="n">
-        <v>1415.165059078087</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O31" t="n">
-        <v>1516.372687468062</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P31" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q31" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R31" t="n">
         <v>2105.825549548314</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.224392149867</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="T31" t="n">
-        <v>1951.224392149867</v>
+        <v>1866.294719426138</v>
       </c>
       <c r="U31" t="n">
-        <v>1671.088563024451</v>
+        <v>1866.294719426138</v>
       </c>
       <c r="V31" t="n">
-        <v>1389.37709563248</v>
+        <v>1584.583252034166</v>
       </c>
       <c r="W31" t="n">
-        <v>1114.524691804993</v>
+        <v>1309.730848206679</v>
       </c>
       <c r="X31" t="n">
-        <v>871.960795250798</v>
+        <v>1132.123764929152</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.6180269405401</v>
+        <v>905.7809966188936</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1032.677250295562</v>
+        <v>1320.257563489371</v>
       </c>
       <c r="C32" t="n">
-        <v>745.7504016234184</v>
+        <v>893.356833502671</v>
       </c>
       <c r="D32" t="n">
-        <v>745.7504016234184</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E32" t="n">
-        <v>319.7734617712759</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F32" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G32" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H32" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I32" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J32" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983718</v>
       </c>
       <c r="K32" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L32" t="n">
-        <v>701.0562546154877</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M32" t="n">
         <v>1005.977266623261</v>
@@ -6718,34 +6718,34 @@
         <v>1607.71019061354</v>
       </c>
       <c r="P32" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q32" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R32" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S32" t="n">
-        <v>2053.699874737618</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="T32" t="n">
-        <v>2053.699874737618</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="U32" t="n">
-        <v>1795.503935214423</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="V32" t="n">
-        <v>1438.014520340672</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="W32" t="n">
-        <v>1438.014520340672</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="X32" t="n">
-        <v>1438.014520340672</v>
+        <v>1641.979875905366</v>
       </c>
       <c r="Y32" t="n">
-        <v>1032.677250295562</v>
+        <v>1641.979875905366</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G33" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H33" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I33" t="n">
-        <v>62.12254544355309</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J33" t="n">
-        <v>140.1681348405093</v>
+        <v>163.6254406849212</v>
       </c>
       <c r="K33" t="n">
-        <v>286.2606370562918</v>
+        <v>309.7179429007037</v>
       </c>
       <c r="L33" t="n">
-        <v>490.2274481576873</v>
+        <v>513.6847540020992</v>
       </c>
       <c r="M33" t="n">
-        <v>731.3925872980503</v>
+        <v>754.8498931424624</v>
       </c>
       <c r="N33" t="n">
-        <v>981.2820548609998</v>
+        <v>1004.739360705412</v>
       </c>
       <c r="O33" t="n">
-        <v>1206.271381091132</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P33" t="n">
         <v>1558.293390055575</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>278.53557128658</v>
+        <v>386.0900491864522</v>
       </c>
       <c r="C34" t="n">
-        <v>278.53557128658</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="D34" t="n">
-        <v>115.2187984133507</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="E34" t="n">
-        <v>115.2187984133507</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="F34" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G34" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H34" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I34" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J34" t="n">
-        <v>83.59006134693922</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K34" t="n">
-        <v>325.1507223489295</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L34" t="n">
-        <v>809.7230993363906</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M34" t="n">
-        <v>924.3168851239403</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N34" t="n">
-        <v>1037.462734774884</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O34" t="n">
-        <v>1516.372687468062</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P34" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q34" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R34" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.224392149867</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="T34" t="n">
-        <v>1711.69356202769</v>
+        <v>1881.862383107845</v>
       </c>
       <c r="U34" t="n">
-        <v>1431.557732902274</v>
+        <v>1601.726553982429</v>
       </c>
       <c r="V34" t="n">
-        <v>1149.846265510303</v>
+        <v>1320.015086590458</v>
       </c>
       <c r="W34" t="n">
-        <v>874.9938616828163</v>
+        <v>1045.162682762971</v>
       </c>
       <c r="X34" t="n">
-        <v>632.4299651286213</v>
+        <v>802.5987862087759</v>
       </c>
       <c r="Y34" t="n">
-        <v>468.7015399986456</v>
+        <v>576.2560178985179</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.418021491921</v>
+        <v>483.1446800420848</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.418021491921</v>
+        <v>56.24395005538491</v>
       </c>
       <c r="D35" t="n">
-        <v>722.1254006769213</v>
+        <v>56.24395005538491</v>
       </c>
       <c r="E35" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="F35" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H35" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I35" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J35" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983718</v>
       </c>
       <c r="K35" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L35" t="n">
-        <v>701.0562546154877</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M35" t="n">
         <v>1005.977266623261</v>
@@ -6955,34 +6955,34 @@
         <v>1607.71019061354</v>
       </c>
       <c r="P35" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q35" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R35" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S35" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="T35" t="n">
-        <v>2112.785591996434</v>
+        <v>1900.558654183793</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.627435197924</v>
+        <v>1642.362714660598</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.138020324174</v>
+        <v>1284.873299786848</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.138020324174</v>
+        <v>888.4819500871945</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.418021491921</v>
+        <v>888.4819500871945</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.418021491921</v>
+        <v>483.1446800420848</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G36" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H36" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I36" t="n">
-        <v>62.12254544355309</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J36" t="n">
-        <v>420.2134976453282</v>
+        <v>163.6254406849212</v>
       </c>
       <c r="K36" t="n">
-        <v>566.3059998611106</v>
+        <v>309.7179429007037</v>
       </c>
       <c r="L36" t="n">
-        <v>770.2728109625061</v>
+        <v>513.6847540020992</v>
       </c>
       <c r="M36" t="n">
-        <v>1011.437950102869</v>
+        <v>754.8498931424624</v>
       </c>
       <c r="N36" t="n">
-        <v>1261.327417665819</v>
+        <v>1004.739360705412</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P36" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R36" t="n">
         <v>1815.507845353902</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>503.0170996798335</v>
+        <v>1016.851952901692</v>
       </c>
       <c r="C37" t="n">
-        <v>331.0445365587495</v>
+        <v>844.8793897806077</v>
       </c>
       <c r="D37" t="n">
-        <v>331.0445365587495</v>
+        <v>681.5626169073784</v>
       </c>
       <c r="E37" t="n">
-        <v>164.8363307116031</v>
+        <v>515.3544110602319</v>
       </c>
       <c r="F37" t="n">
-        <v>164.8363307116031</v>
+        <v>343.4926368347923</v>
       </c>
       <c r="G37" t="n">
-        <v>115.2187984133507</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I37" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J37" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K37" t="n">
-        <v>489.5378169995208</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L37" t="n">
-        <v>974.1101939869819</v>
+        <v>648.905868224739</v>
       </c>
       <c r="M37" t="n">
-        <v>1088.703979774532</v>
+        <v>1171.820302243857</v>
       </c>
       <c r="N37" t="n">
-        <v>1599.882752267355</v>
+        <v>1682.99907473668</v>
       </c>
       <c r="O37" t="n">
-        <v>1980.502389419269</v>
+        <v>1784.206703126655</v>
       </c>
       <c r="P37" t="n">
-        <v>2064.005429355621</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q37" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R37" t="n">
-        <v>2112.785591996434</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S37" t="n">
-        <v>1958.184434597987</v>
+        <v>2005.425277013737</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.65360447581</v>
+        <v>1765.89444689156</v>
       </c>
       <c r="U37" t="n">
-        <v>1718.65360447581</v>
+        <v>1485.758617766144</v>
       </c>
       <c r="V37" t="n">
-        <v>1436.942137083839</v>
+        <v>1485.758617766144</v>
       </c>
       <c r="W37" t="n">
-        <v>1162.089733256352</v>
+        <v>1485.758617766144</v>
       </c>
       <c r="X37" t="n">
-        <v>919.5258367021571</v>
+        <v>1243.19472121195</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.1830683918992</v>
+        <v>1016.851952901692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>417.6762339961246</v>
+        <v>1743.550184304371</v>
       </c>
       <c r="C38" t="n">
-        <v>42.25571183992867</v>
+        <v>1316.649454317671</v>
       </c>
       <c r="D38" t="n">
-        <v>42.25571183992867</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E38" t="n">
-        <v>42.25571183992867</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F38" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G38" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H38" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I38" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372566</v>
       </c>
       <c r="J38" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983725</v>
       </c>
       <c r="K38" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740999</v>
       </c>
       <c r="L38" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154878</v>
       </c>
       <c r="M38" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.977266623262</v>
       </c>
       <c r="N38" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251985</v>
       </c>
       <c r="O38" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.710190613541</v>
       </c>
       <c r="P38" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.57498453746</v>
       </c>
       <c r="Q38" t="n">
-        <v>2025.128259099848</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R38" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S38" t="n">
-        <v>2053.699874737617</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="T38" t="n">
-        <v>1841.472936924976</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="U38" t="n">
-        <v>1583.276997401781</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="V38" t="n">
-        <v>1225.78758252803</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="W38" t="n">
-        <v>829.3962328283774</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="X38" t="n">
-        <v>417.6762339961246</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="Y38" t="n">
-        <v>417.6762339961246</v>
+        <v>2112.785591996435</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G39" t="n">
-        <v>85.36348496437884</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H39" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I39" t="n">
-        <v>62.12254544355308</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J39" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K39" t="n">
-        <v>286.2606370562918</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L39" t="n">
-        <v>490.2274481576873</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M39" t="n">
-        <v>731.3925872980503</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N39" t="n">
-        <v>981.2820548609998</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R39" t="n">
         <v>1815.507845353902</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.4068220596815</v>
+        <v>386.0900491864522</v>
       </c>
       <c r="C40" t="n">
-        <v>377.4342589385975</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="D40" t="n">
-        <v>214.1174860653682</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="E40" t="n">
-        <v>214.1174860653682</v>
+        <v>214.1174860653683</v>
       </c>
       <c r="F40" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G40" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H40" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I40" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J40" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K40" t="n">
-        <v>489.5378169995208</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L40" t="n">
-        <v>974.1101939869818</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M40" t="n">
-        <v>1088.703979774531</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N40" t="n">
-        <v>1350.218939348191</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O40" t="n">
-        <v>1829.128892041369</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P40" t="n">
-        <v>1912.631931977721</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q40" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R40" t="n">
-        <v>2105.825549548313</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S40" t="n">
-        <v>1951.224392149867</v>
+        <v>1951.224392149868</v>
       </c>
       <c r="T40" t="n">
-        <v>1765.043326855658</v>
+        <v>1881.862383107845</v>
       </c>
       <c r="U40" t="n">
-        <v>1765.043326855658</v>
+        <v>1601.726553982429</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.331859463687</v>
+        <v>1320.015086590458</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.4794556362</v>
+        <v>1045.162682762971</v>
       </c>
       <c r="X40" t="n">
-        <v>965.9155590820051</v>
+        <v>802.5987862087759</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.5727907717471</v>
+        <v>576.2560178985179</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.257563489371</v>
+        <v>1641.979875905366</v>
       </c>
       <c r="C41" t="n">
-        <v>893.356833502671</v>
+        <v>1215.079145918666</v>
       </c>
       <c r="D41" t="n">
         <v>893.356833502671</v>
@@ -7399,31 +7399,31 @@
         <v>467.3798936505285</v>
       </c>
       <c r="F41" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G41" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H41" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I41" t="n">
-        <v>83.13735652372549</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J41" t="n">
-        <v>219.3099931983723</v>
+        <v>219.3099931983718</v>
       </c>
       <c r="K41" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L41" t="n">
-        <v>701.0562546154877</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M41" t="n">
         <v>1005.977266623261</v>
       </c>
       <c r="N41" t="n">
-        <v>1316.581963251985</v>
+        <v>1316.581963251984</v>
       </c>
       <c r="O41" t="n">
         <v>1607.71019061354</v>
@@ -7432,31 +7432,31 @@
         <v>1850.57498453746</v>
       </c>
       <c r="Q41" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R41" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S41" t="n">
-        <v>2053.699874737618</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="T41" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="U41" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="V41" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="W41" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.594833534481</v>
+        <v>1641.979875905366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.257563489371</v>
+        <v>1641.979875905366</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.36348496437887</v>
       </c>
       <c r="H42" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I42" t="n">
-        <v>62.12254544355311</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J42" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K42" t="n">
-        <v>286.2606370562918</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L42" t="n">
-        <v>490.2274481576873</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M42" t="n">
-        <v>731.3925872980504</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.307021317168</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O42" t="n">
-        <v>1479.2963475473</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P42" t="n">
-        <v>1656.72849399183</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q42" t="n">
-        <v>1767.225315605762</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R42" t="n">
         <v>1815.507845353902</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.815039475114</v>
+        <v>215.9212281062987</v>
       </c>
       <c r="C43" t="n">
-        <v>917.8424763540297</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="D43" t="n">
-        <v>754.5257034808004</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="E43" t="n">
-        <v>588.3174976336539</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4557234082143</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="G43" t="n">
-        <v>251.0901088975774</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H43" t="n">
         <v>115.2187984133507</v>
       </c>
       <c r="I43" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J43" t="n">
-        <v>83.59006134693922</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K43" t="n">
         <v>164.3334912372779</v>
       </c>
       <c r="L43" t="n">
-        <v>648.905868224739</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M43" t="n">
-        <v>1171.820302243857</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N43" t="n">
-        <v>1284.9661518948</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O43" t="n">
-        <v>1763.876104587978</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P43" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q43" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R43" t="n">
-        <v>2112.785591996434</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.785591996434</v>
+        <v>1951.224392149868</v>
       </c>
       <c r="T43" t="n">
-        <v>1873.254761874257</v>
+        <v>1711.693562027691</v>
       </c>
       <c r="U43" t="n">
-        <v>1593.118932748841</v>
+        <v>1431.557732902275</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.010211612859</v>
+        <v>1149.846265510304</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.157807785372</v>
+        <v>874.9938616828172</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.157807785372</v>
+        <v>632.4299651286223</v>
       </c>
       <c r="Y43" t="n">
-        <v>1089.815039475114</v>
+        <v>406.0871968183643</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1583.276997401782</v>
+        <v>1299.819110164215</v>
       </c>
       <c r="C44" t="n">
-        <v>1156.376267415082</v>
+        <v>872.9183801775152</v>
       </c>
       <c r="D44" t="n">
-        <v>1156.376267415082</v>
+        <v>468.2326516920712</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.249582487521</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="F44" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="G44" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="H44" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I44" t="n">
-        <v>83.13735652372554</v>
+        <v>83.13735652372588</v>
       </c>
       <c r="J44" t="n">
-        <v>219.3099931983724</v>
+        <v>219.3099931983725</v>
       </c>
       <c r="K44" t="n">
-        <v>431.6424856740998</v>
+        <v>431.6424856741</v>
       </c>
       <c r="L44" t="n">
-        <v>701.0562546154877</v>
+        <v>701.056254615488</v>
       </c>
       <c r="M44" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.977266623262</v>
       </c>
       <c r="N44" t="n">
         <v>1316.581963251985</v>
@@ -7669,31 +7669,31 @@
         <v>1850.57498453746</v>
       </c>
       <c r="Q44" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.12825909985</v>
       </c>
       <c r="R44" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="S44" t="n">
-        <v>2053.699874737618</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="T44" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="U44" t="n">
-        <v>1583.276997401782</v>
+        <v>2053.699874737619</v>
       </c>
       <c r="V44" t="n">
-        <v>1583.276997401782</v>
+        <v>1696.210459863868</v>
       </c>
       <c r="W44" t="n">
-        <v>1583.276997401782</v>
+        <v>1299.819110164215</v>
       </c>
       <c r="X44" t="n">
-        <v>1583.276997401782</v>
+        <v>1299.819110164215</v>
       </c>
       <c r="Y44" t="n">
-        <v>1583.276997401782</v>
+        <v>1299.819110164215</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>895.3254245933098</v>
+        <v>598.0476779507782</v>
       </c>
       <c r="C45" t="n">
-        <v>777.8195211108145</v>
+        <v>480.5417744682829</v>
       </c>
       <c r="D45" t="n">
-        <v>673.9795626260996</v>
+        <v>376.701815983568</v>
       </c>
       <c r="E45" t="n">
-        <v>569.2776288990368</v>
+        <v>271.9998822565052</v>
       </c>
       <c r="F45" t="n">
-        <v>475.631798581941</v>
+        <v>178.3540519394094</v>
       </c>
       <c r="G45" t="n">
-        <v>382.6412316069105</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H45" t="n">
-        <v>339.5334584824603</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="I45" t="n">
-        <v>359.4002920860847</v>
+        <v>85.57985128796496</v>
       </c>
       <c r="J45" t="n">
-        <v>437.4458814830409</v>
+        <v>314.7579973604223</v>
       </c>
       <c r="K45" t="n">
-        <v>583.5383836988235</v>
+        <v>460.8504995762048</v>
       </c>
       <c r="L45" t="n">
-        <v>1067.550557605038</v>
+        <v>664.8173106776003</v>
       </c>
       <c r="M45" t="n">
-        <v>1308.715696745401</v>
+        <v>905.9824498179635</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.60516430835</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O45" t="n">
-        <v>1783.594490538483</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P45" t="n">
-        <v>1961.026636983013</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q45" t="n">
-        <v>2071.523458596945</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R45" t="n">
-        <v>2112.785591996434</v>
+        <v>1815.507845353902</v>
       </c>
       <c r="S45" t="n">
-        <v>2051.209907536604</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T45" t="n">
-        <v>1913.615433316602</v>
+        <v>1616.33768667407</v>
       </c>
       <c r="U45" t="n">
-        <v>1728.917184920934</v>
+        <v>1431.639438278402</v>
       </c>
       <c r="V45" t="n">
-        <v>1523.9440460602</v>
+        <v>1226.666299417668</v>
       </c>
       <c r="W45" t="n">
-        <v>1327.422668893417</v>
+        <v>1030.144922250886</v>
       </c>
       <c r="X45" t="n">
-        <v>1163.94532266008</v>
+        <v>866.6675760175485</v>
       </c>
       <c r="Y45" t="n">
-        <v>1024.252434013373</v>
+        <v>726.9746873708409</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.5257034808004</v>
+        <v>907.2823689561093</v>
       </c>
       <c r="C46" t="n">
-        <v>754.5257034808004</v>
+        <v>735.3098058350253</v>
       </c>
       <c r="D46" t="n">
-        <v>754.5257034808004</v>
+        <v>735.3098058350253</v>
       </c>
       <c r="E46" t="n">
         <v>588.3174976336539</v>
@@ -7803,31 +7803,31 @@
         <v>115.2187984133507</v>
       </c>
       <c r="I46" t="n">
-        <v>42.25571183992868</v>
+        <v>42.25571183992869</v>
       </c>
       <c r="J46" t="n">
-        <v>83.59006134693922</v>
+        <v>83.59006134693924</v>
       </c>
       <c r="K46" t="n">
-        <v>325.15072234893</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L46" t="n">
-        <v>809.7230993363911</v>
+        <v>467.4992302141502</v>
       </c>
       <c r="M46" t="n">
-        <v>924.3168851239408</v>
+        <v>990.4136642332677</v>
       </c>
       <c r="N46" t="n">
-        <v>1037.462734774884</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O46" t="n">
-        <v>1516.372687468062</v>
+        <v>1980.50238941927</v>
       </c>
       <c r="P46" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355622</v>
       </c>
       <c r="Q46" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996435</v>
       </c>
       <c r="R46" t="n">
         <v>2105.825549548314</v>
@@ -7839,19 +7839,19 @@
         <v>1711.693562027691</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.432343010516</v>
+        <v>1431.557732902275</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.720875618545</v>
+        <v>1149.846265510304</v>
       </c>
       <c r="W46" t="n">
-        <v>980.8684717910584</v>
+        <v>1149.846265510304</v>
       </c>
       <c r="X46" t="n">
-        <v>980.8684717910584</v>
+        <v>907.2823689561093</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.5257034808004</v>
+        <v>907.2823689561093</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K2" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L2" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M2" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N2" t="n">
         <v>6.880166552921242</v>
@@ -7999,7 +7999,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R2" t="n">
         <v>24.33067662398352</v>
@@ -8060,7 +8060,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K3" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L3" t="n">
         <v>2.722701059689193</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P3" t="n">
         <v>4.364096701700124</v>
@@ -8151,7 +8151,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O4" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P4" t="n">
         <v>13.13791998612571</v>
@@ -8218,25 +8218,25 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L5" t="n">
-        <v>11.42645714324614</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310208</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N5" t="n">
-        <v>6.880166552921239</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O5" t="n">
-        <v>8.685614816471276</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P5" t="n">
-        <v>13.07601436734048</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -8297,10 +8297,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590227</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L6" t="n">
-        <v>2.722701059689189</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P6" t="n">
-        <v>4.36409670170012</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q6" t="n">
         <v>11.11109056471342</v>
@@ -8385,10 +8385,10 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N7" t="n">
-        <v>9.054267004656877</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -8768,19 +8768,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>282.8741038432514</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>7.091309443081855</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>275.7827944001697</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>130.187349970959</v>
+        <v>183.215631325464</v>
       </c>
       <c r="M13" t="n">
-        <v>412.4450992238059</v>
+        <v>412.4450992238058</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>152.6591481570721</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.3533964847609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9087,19 +9087,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>51.47854527578605</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>412.4450992238058</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>215.4699289420321</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>259.1798555155626</v>
+        <v>152.6591481570719</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>412.4450992238056</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.63615701733765</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.56375694497876</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>152.6591481570715</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>275.7827944001697</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.091309443081258</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>44.04925070977433</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>412.4450992238058</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>63.19688477247902</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>282.8741038432514</v>
+        <v>259.1798555155626</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9798,16 +9798,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>61.87018708355163</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>214.1432312531052</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>152.6591481570718</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>176.3533964847609</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M28" t="n">
-        <v>412.4450992238055</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>30.94258715591026</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>152.6591481570718</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>176.3533964847609</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>183.215631325464</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M31" t="n">
-        <v>412.4450992238058</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>152.6591481570719</v>
       </c>
       <c r="P33" t="n">
-        <v>176.3533964847609</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>162.4416475875269</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>282.8741038432514</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>152.6591481570719</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>412.4450992238059</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>282.2343522847863</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>198.2784710026411</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>152.6591481570718</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>282.8741038432516</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N40" t="n">
-        <v>149.8677878007231</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>152.6591481570718</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>275.7827944001697</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.091309443081848</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M43" t="n">
-        <v>412.4450992238058</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>65.9119065185775</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>152.6591481570718</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>282.8741038432513</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>162.4416475875274</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>196.9517733137133</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>412.445099223806</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>179.7797445148327</v>
+        <v>65.07977736188928</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H11" t="n">
         <v>274.7425724320338</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.49486008622741</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3344708341617</v>
+        <v>226.5343235371543</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>175.4767527688653</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.49486008622741</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>19.54104687883137</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>266.7201083908979</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170.1987707404531</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>124.7560239941768</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S16" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.135521820955</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.49486008622741</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.1046684345147</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>28.42758939496008</v>
       </c>
       <c r="W17" t="n">
-        <v>193.3478876446952</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>106.0713973866946</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7119583655305</v>
+        <v>8.871107920547871</v>
       </c>
       <c r="H19" t="n">
         <v>134.5125973793844</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>58.06308419986084</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.328419516589</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>176.6679325378962</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>72.23345570768777</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.890442023638947</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.99804559984024</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>100.4743646921838</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>58.06308419986084</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.3339270331613</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>99.53051826235156</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>42.42012852450085</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.23345570768778</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.3375421239641</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1046684345147</v>
+        <v>157.0677722473718</v>
       </c>
       <c r="U26" t="n">
         <v>255.6139801279633</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5125973793844</v>
+        <v>125.37223376486</v>
       </c>
       <c r="I28" t="n">
         <v>72.23345570768778</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>154.3008678294669</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>271.7193909226112</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H29" t="n">
         <v>274.7425724320338</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.49486008622741</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1046684345147</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>400.4217524886539</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.29703095662506</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.7119583655305</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T31" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>64.30724514390036</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>97.14479135677948</v>
       </c>
       <c r="C32" t="n">
-        <v>138.5741425014104</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.328419516589</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>210.1046684345147</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.7119583655305</v>
@@ -25095,7 +25095,7 @@
         <v>134.5125973793844</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.521545021251285</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.98819974847942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>407.8688146203194</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.49486008622741</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>59.43740489743914</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.5906013902606</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.890442023638961</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>53.65887601523038</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>50.1068270334714</v>
       </c>
       <c r="C38" t="n">
-        <v>50.96540575219888</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.328419516589</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.4948600862274</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.81626717968857</v>
+        <v>168.4671328693521</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>100.5546053150144</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U41" t="n">
         <v>255.6139801279633</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>292.8834764873386</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>70.55743209385467</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.890442023638961</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>276.8067187934285</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>18.42082340626007</v>
       </c>
       <c r="E44" t="n">
-        <v>412.6817523753356</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,13 +26025,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>19.0237386693174</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>104.8158640071592</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377096.8383197031</v>
+        <v>377096.8383197029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377096.8383197029</v>
+        <v>377096.8383197028</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>377096.8383197029</v>
+        <v>377096.8383197031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>377096.8383197029</v>
+        <v>377096.838319703</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>377096.8383197028</v>
+        <v>377096.8383197029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>377096.8383197028</v>
+        <v>377096.8383197031</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>377096.8383197029</v>
+        <v>377096.8383197031</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>377096.8383197029</v>
+        <v>377096.8383197031</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401639.5409775306</v>
+        <v>401639.5409775308</v>
       </c>
       <c r="C2" t="n">
-        <v>401639.5409775305</v>
+        <v>401639.5409775308</v>
       </c>
       <c r="D2" t="n">
         <v>401640.1903626064</v>
       </c>
       <c r="E2" t="n">
-        <v>237013.280409902</v>
+        <v>237013.2804099018</v>
       </c>
       <c r="F2" t="n">
         <v>237013.280409902</v>
@@ -26331,13 +26331,13 @@
         <v>237013.2804099019</v>
       </c>
       <c r="H2" t="n">
-        <v>237013.2804099019</v>
+        <v>237013.280409902</v>
       </c>
       <c r="I2" t="n">
         <v>237013.280409902</v>
       </c>
       <c r="J2" t="n">
-        <v>237013.2804099019</v>
+        <v>237013.280409902</v>
       </c>
       <c r="K2" t="n">
         <v>237013.280409902</v>
@@ -26349,13 +26349,13 @@
         <v>237013.280409902</v>
       </c>
       <c r="N2" t="n">
-        <v>237013.2804099019</v>
+        <v>237013.280409902</v>
       </c>
       <c r="O2" t="n">
         <v>237013.2804099019</v>
       </c>
       <c r="P2" t="n">
-        <v>237013.280409902</v>
+        <v>237013.2804099019</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>311345.8157815178</v>
       </c>
       <c r="D4" t="n">
-        <v>310560.5041981633</v>
+        <v>310560.5041981634</v>
       </c>
       <c r="E4" t="n">
         <v>22015.8461685548</v>
@@ -26435,7 +26435,7 @@
         <v>22015.84616855479</v>
       </c>
       <c r="H4" t="n">
-        <v>22015.84616855478</v>
+        <v>22015.84616855479</v>
       </c>
       <c r="I4" t="n">
         <v>22015.8461685548</v>
@@ -26450,16 +26450,16 @@
         <v>22015.8461685548</v>
       </c>
       <c r="M4" t="n">
-        <v>22015.84616855479</v>
+        <v>22015.8461685548</v>
       </c>
       <c r="N4" t="n">
-        <v>22015.84616855479</v>
+        <v>22015.8461685548</v>
       </c>
       <c r="O4" t="n">
         <v>22015.8461685548</v>
       </c>
       <c r="P4" t="n">
-        <v>22015.84616855479</v>
+        <v>22015.8461685548</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>42782.25824471217</v>
       </c>
       <c r="J5" t="n">
-        <v>42782.25824471216</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="K5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="L5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="M5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="N5" t="n">
-        <v>42782.25824471216</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="O5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471218</v>
       </c>
       <c r="P5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471218</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14904.89992079327</v>
+        <v>14883.22018282809</v>
       </c>
       <c r="C6" t="n">
-        <v>55742.25397551952</v>
+        <v>55720.57423755457</v>
       </c>
       <c r="D6" t="n">
-        <v>53982.23697398638</v>
+        <v>53960.55955525343</v>
       </c>
       <c r="E6" t="n">
-        <v>-342264.2754737915</v>
+        <v>-342873.9061423558</v>
       </c>
       <c r="F6" t="n">
-        <v>172215.1759966351</v>
+        <v>171605.545328071</v>
       </c>
       <c r="G6" t="n">
-        <v>172215.1759966349</v>
+        <v>171605.545328071</v>
       </c>
       <c r="H6" t="n">
-        <v>172215.175996635</v>
+        <v>171605.545328071</v>
       </c>
       <c r="I6" t="n">
-        <v>172215.175996635</v>
+        <v>171605.545328071</v>
       </c>
       <c r="J6" t="n">
-        <v>172215.1759966349</v>
+        <v>171605.545328071</v>
       </c>
       <c r="K6" t="n">
-        <v>172215.175996635</v>
+        <v>171605.545328071</v>
       </c>
       <c r="L6" t="n">
-        <v>172215.1759966349</v>
+        <v>171605.545328071</v>
       </c>
       <c r="M6" t="n">
-        <v>40586.52082966521</v>
+        <v>39976.89016110123</v>
       </c>
       <c r="N6" t="n">
-        <v>172215.1759966349</v>
+        <v>171605.5453280711</v>
       </c>
       <c r="O6" t="n">
-        <v>172215.175996635</v>
+        <v>171605.545328071</v>
       </c>
       <c r="P6" t="n">
-        <v>172215.175996635</v>
+        <v>171605.545328071</v>
       </c>
     </row>
   </sheetData>
@@ -26752,28 +26752,28 @@
         <v>489.354002126898</v>
       </c>
       <c r="G3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="H3" t="n">
         <v>489.3540021268982</v>
       </c>
       <c r="I3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="J3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="K3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="L3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="M3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="N3" t="n">
-        <v>489.354002126898</v>
+        <v>489.3540021268981</v>
       </c>
       <c r="O3" t="n">
         <v>489.3540021268981</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.1963979991085</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="F4" t="n">
         <v>528.1963979991084</v>
       </c>
       <c r="G4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="H4" t="n">
         <v>528.1963979991085</v>
@@ -26813,25 +26813,25 @@
         <v>528.1963979991085</v>
       </c>
       <c r="J4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="K4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="L4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="M4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="O4" t="n">
-        <v>528.1963979991085</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="P4" t="n">
-        <v>528.1963979991085</v>
+        <v>528.1963979991086</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,13 +31047,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I2" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J2" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K2" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L2" t="n">
         <v>26.88558528937678</v>
@@ -31077,7 +31077,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S2" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T2" t="n">
         <v>0.7457924978486244</v>
@@ -31123,7 +31123,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I3" t="n">
         <v>3.138475454765011</v>
@@ -31144,7 +31144,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P3" t="n">
         <v>17.40674450312854</v>
@@ -31159,10 +31159,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31226,13 +31226,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P4" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q4" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R4" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S4" t="n">
         <v>1.331825184001586</v>
@@ -31284,19 +31284,19 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J5" t="n">
-        <v>14.45989857550651</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
       </c>
       <c r="M5" t="n">
-        <v>29.91539393212161</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N5" t="n">
         <v>30.39945628152478</v>
@@ -31305,7 +31305,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P5" t="n">
-        <v>24.49934744289082</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q5" t="n">
         <v>18.39798962925201</v>
@@ -31314,10 +31314,10 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U5" t="n">
         <v>0.013629560211968</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958669</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J6" t="n">
-        <v>8.612216531349441</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K6" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L6" t="n">
-        <v>19.79238565454037</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31390,16 +31390,16 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R6" t="n">
-        <v>5.659650769127836</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S6" t="n">
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I7" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J7" t="n">
-        <v>5.403027885227093</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K7" t="n">
-        <v>8.878834560010574</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L7" t="n">
         <v>11.36185136106518</v>
@@ -31457,19 +31457,19 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N7" t="n">
-        <v>11.69463397094352</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O7" t="n">
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.399291481397294</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -32232,7 +32232,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I17" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J17" t="n">
         <v>166.9680773387651</v>
@@ -32244,16 +32244,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M17" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N17" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O17" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P17" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q17" t="n">
         <v>212.4411135565068</v>
@@ -32262,10 +32262,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S17" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T17" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U17" t="n">
         <v>0.15738018158855</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H18" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I18" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J18" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K18" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L18" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M18" t="n">
         <v>266.6979311591594</v>
@@ -32347,7 +32347,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H19" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I19" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J19" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K19" t="n">
         <v>102.5236745439632</v>
@@ -32414,7 +32414,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R19" t="n">
         <v>39.67778515605962</v>
@@ -32426,7 +32426,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I23" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J23" t="n">
         <v>166.9680773387651</v>
@@ -32718,16 +32718,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M23" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N23" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O23" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P23" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q23" t="n">
         <v>212.4411135565068</v>
@@ -32736,10 +32736,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S23" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T23" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U23" t="n">
         <v>0.15738018158855</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H24" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I24" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J24" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K24" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L24" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M24" t="n">
         <v>266.6979311591594</v>
@@ -32821,7 +32821,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H25" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I25" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J25" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K25" t="n">
         <v>102.5236745439632</v>
@@ -32888,7 +32888,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R25" t="n">
         <v>39.67778515605962</v>
@@ -32900,7 +32900,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I26" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J26" t="n">
         <v>166.9680773387651</v>
@@ -32955,16 +32955,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M26" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N26" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O26" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P26" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q26" t="n">
         <v>212.4411135565068</v>
@@ -32973,10 +32973,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S26" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T26" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U26" t="n">
         <v>0.15738018158855</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H27" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I27" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J27" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K27" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L27" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M27" t="n">
         <v>266.6979311591594</v>
@@ -33058,7 +33058,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H28" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I28" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J28" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K28" t="n">
         <v>102.5236745439632</v>
@@ -33125,7 +33125,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R28" t="n">
         <v>39.67778515605962</v>
@@ -33137,7 +33137,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I29" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J29" t="n">
         <v>166.9680773387651</v>
@@ -33192,16 +33192,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M29" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N29" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O29" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P29" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q29" t="n">
         <v>212.4411135565068</v>
@@ -33210,10 +33210,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S29" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T29" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U29" t="n">
         <v>0.15738018158855</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H30" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I30" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J30" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K30" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L30" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M30" t="n">
         <v>266.6979311591594</v>
@@ -33295,7 +33295,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H31" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I31" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J31" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K31" t="n">
         <v>102.5236745439632</v>
@@ -33362,7 +33362,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R31" t="n">
         <v>39.67778515605962</v>
@@ -33374,7 +33374,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I32" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J32" t="n">
         <v>166.9680773387651</v>
@@ -33429,16 +33429,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M32" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N32" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O32" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P32" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q32" t="n">
         <v>212.4411135565068</v>
@@ -33447,10 +33447,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S32" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T32" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U32" t="n">
         <v>0.15738018158855</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H33" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I33" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J33" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K33" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L33" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M33" t="n">
         <v>266.6979311591594</v>
@@ -33532,7 +33532,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H34" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I34" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J34" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K34" t="n">
         <v>102.5236745439632</v>
@@ -33599,7 +33599,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R34" t="n">
         <v>39.67778515605962</v>
@@ -33611,7 +33611,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I35" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J35" t="n">
         <v>166.9680773387651</v>
@@ -33666,16 +33666,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M35" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N35" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O35" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P35" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q35" t="n">
         <v>212.4411135565068</v>
@@ -33684,10 +33684,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S35" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T35" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U35" t="n">
         <v>0.15738018158855</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H36" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I36" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J36" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K36" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L36" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M36" t="n">
         <v>266.6979311591594</v>
@@ -33769,7 +33769,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H37" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I37" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J37" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K37" t="n">
         <v>102.5236745439632</v>
@@ -33836,7 +33836,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R37" t="n">
         <v>39.67778515605962</v>
@@ -33848,7 +33848,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.14712230867173</v>
       </c>
       <c r="I38" t="n">
-        <v>75.84249313365724</v>
+        <v>75.84249313365726</v>
       </c>
       <c r="J38" t="n">
         <v>166.9680773387651</v>
@@ -33903,16 +33903,16 @@
         <v>310.4471625754391</v>
       </c>
       <c r="M38" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295063</v>
       </c>
       <c r="N38" t="n">
-        <v>351.0217406412371</v>
+        <v>351.0217406412372</v>
       </c>
       <c r="O38" t="n">
         <v>331.4598758828478</v>
       </c>
       <c r="P38" t="n">
-        <v>282.8933354707561</v>
+        <v>282.8933354707562</v>
       </c>
       <c r="Q38" t="n">
         <v>212.4411135565068</v>
@@ -33921,10 +33921,10 @@
         <v>123.575410396397</v>
       </c>
       <c r="S38" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936359</v>
       </c>
       <c r="T38" t="n">
-        <v>8.611646811298474</v>
+        <v>8.611646811298476</v>
       </c>
       <c r="U38" t="n">
         <v>0.15738018158855</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.052572759291818</v>
+        <v>1.052572759291819</v>
       </c>
       <c r="H39" t="n">
         <v>10.16563691210783</v>
       </c>
       <c r="I39" t="n">
-        <v>36.23989544052971</v>
+        <v>36.23989544052972</v>
       </c>
       <c r="J39" t="n">
-        <v>99.44504301712747</v>
+        <v>99.44504301712749</v>
       </c>
       <c r="K39" t="n">
         <v>169.9674178896793</v>
       </c>
       <c r="L39" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348311</v>
       </c>
       <c r="M39" t="n">
         <v>266.6979311591594</v>
@@ -34006,7 +34006,7 @@
         <v>4.242606867496407</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06924820784814598</v>
+        <v>0.06924820784814599</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.882441643179652</v>
+        <v>0.8824416431796521</v>
       </c>
       <c r="H40" t="n">
-        <v>7.84570842754273</v>
+        <v>7.845708427542731</v>
       </c>
       <c r="I40" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J40" t="n">
-        <v>62.3886241728014</v>
+        <v>62.38862417280141</v>
       </c>
       <c r="K40" t="n">
         <v>102.5236745439632</v>
@@ -34073,7 +34073,7 @@
         <v>106.7273056442008</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.89245432116159</v>
+        <v>73.89245432116161</v>
       </c>
       <c r="R40" t="n">
         <v>39.67778515605962</v>
@@ -34085,7 +34085,7 @@
         <v>3.770432475403967</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04813318053707199</v>
+        <v>0.048133180537072</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>282.8933354707562</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.4411135565067</v>
+        <v>212.4411135565068</v>
       </c>
       <c r="R41" t="n">
         <v>123.575410396397</v>
@@ -35488,19 +35488,19 @@
         <v>20.06750869052971</v>
       </c>
       <c r="J12" t="n">
-        <v>78.83392868379414</v>
+        <v>361.7080325270455</v>
       </c>
       <c r="K12" t="n">
         <v>147.568184056346</v>
       </c>
       <c r="L12" t="n">
-        <v>213.1183913636833</v>
+        <v>206.0270819206015</v>
       </c>
       <c r="M12" t="n">
         <v>243.6011506468314</v>
       </c>
       <c r="N12" t="n">
-        <v>528.1963979991085</v>
+        <v>252.4136035989388</v>
       </c>
       <c r="O12" t="n">
         <v>227.2619456870027</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.75186818889954</v>
+        <v>120.4606728840721</v>
       </c>
       <c r="K13" t="n">
-        <v>81.5590200912512</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L13" t="n">
-        <v>239.4635958258035</v>
+        <v>292.4918771803086</v>
       </c>
       <c r="M13" t="n">
-        <v>528.1963979991085</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="N13" t="n">
         <v>114.288737021155</v>
       </c>
       <c r="O13" t="n">
-        <v>483.7474269628062</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P13" t="n">
         <v>400.2618631410705</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J15" t="n">
-        <v>78.83392868379414</v>
+        <v>231.4930768408663</v>
       </c>
       <c r="K15" t="n">
         <v>147.568184056346</v>
@@ -35746,7 +35746,7 @@
         <v>179.2243903480099</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.9663476099451</v>
+        <v>111.6129511251842</v>
       </c>
       <c r="R15" t="n">
         <v>148.1996299842369</v>
@@ -35807,19 +35807,19 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K16" t="n">
-        <v>81.5590200912512</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L16" t="n">
-        <v>160.7547911306306</v>
+        <v>489.4670474620819</v>
       </c>
       <c r="M16" t="n">
-        <v>528.1963979991084</v>
+        <v>115.7512987753027</v>
       </c>
       <c r="N16" t="n">
         <v>114.288737021155</v>
       </c>
       <c r="O16" t="n">
-        <v>483.7474269628062</v>
+        <v>317.6998566086734</v>
       </c>
       <c r="P16" t="n">
         <v>400.2618631410705</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J17" t="n">
         <v>137.5481178531786</v>
@@ -35889,25 +35889,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L17" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M17" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N17" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O17" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P17" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R17" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>43.76175701821845</v>
       </c>
       <c r="J18" t="n">
-        <v>338.0137841993568</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K18" t="n">
         <v>147.568184056346</v>
@@ -35986,7 +35986,7 @@
         <v>111.6129511251842</v>
       </c>
       <c r="R18" t="n">
-        <v>41.67892262574615</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,19 +36050,19 @@
         <v>489.4670474620819</v>
       </c>
       <c r="M19" t="n">
-        <v>528.1963979991084</v>
+        <v>115.7512987753027</v>
       </c>
       <c r="N19" t="n">
         <v>114.288737021155</v>
       </c>
       <c r="O19" t="n">
-        <v>136.866084683979</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P19" t="n">
         <v>400.2618631410705</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.27289155637665</v>
+        <v>114.8366485013554</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.06750869052973</v>
+        <v>43.76175701821846</v>
       </c>
       <c r="J21" t="n">
-        <v>78.83392868379417</v>
+        <v>231.4930768408657</v>
       </c>
       <c r="K21" t="n">
         <v>147.568184056346</v>
@@ -36211,19 +36211,19 @@
         <v>243.6011506468315</v>
       </c>
       <c r="N21" t="n">
-        <v>528.1963979991085</v>
+        <v>252.4136035989389</v>
       </c>
       <c r="O21" t="n">
         <v>227.2619456870027</v>
       </c>
       <c r="P21" t="n">
-        <v>186.3156997910912</v>
+        <v>179.22439034801</v>
       </c>
       <c r="Q21" t="n">
         <v>111.6129511251842</v>
       </c>
       <c r="R21" t="n">
-        <v>41.67892262574617</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.4606728840722</v>
+        <v>85.80111889867388</v>
       </c>
       <c r="K22" t="n">
         <v>81.55902009125123</v>
       </c>
       <c r="L22" t="n">
-        <v>489.467047462082</v>
+        <v>109.2762458548446</v>
       </c>
       <c r="M22" t="n">
-        <v>115.7512987753028</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="N22" t="n">
         <v>516.3421944371956</v>
       </c>
       <c r="O22" t="n">
-        <v>165.4268124391204</v>
+        <v>483.7474269628063</v>
       </c>
       <c r="P22" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621434</v>
       </c>
       <c r="Q22" t="n">
         <v>202.1754141603151</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J23" t="n">
         <v>137.5481178531786</v>
@@ -36363,25 +36363,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L23" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M23" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N23" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O23" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P23" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R23" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J24" t="n">
-        <v>361.7080325270455</v>
+        <v>338.0137841993568</v>
       </c>
       <c r="K24" t="n">
         <v>147.568184056346</v>
@@ -36518,16 +36518,16 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K25" t="n">
-        <v>81.5590200912512</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L25" t="n">
-        <v>171.1464329383962</v>
+        <v>109.2762458548445</v>
       </c>
       <c r="M25" t="n">
         <v>115.7512987753027</v>
       </c>
       <c r="N25" t="n">
-        <v>516.3421944371955</v>
+        <v>328.4319682742602</v>
       </c>
       <c r="O25" t="n">
         <v>483.7474269628062</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J26" t="n">
-        <v>137.5481178531786</v>
+        <v>137.5481178531791</v>
       </c>
       <c r="K26" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L26" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M26" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N26" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O26" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P26" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R26" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J27" t="n">
-        <v>78.83392868379414</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K27" t="n">
         <v>147.568184056346</v>
@@ -36691,7 +36691,7 @@
         <v>227.2619456870027</v>
       </c>
       <c r="P27" t="n">
-        <v>355.5777868327708</v>
+        <v>179.2243903480099</v>
       </c>
       <c r="Q27" t="n">
         <v>111.6129511251842</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K28" t="n">
-        <v>81.5590200912512</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L28" t="n">
-        <v>109.2762458548445</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M28" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N28" t="n">
-        <v>516.3421944371955</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1725148225516</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P28" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J29" t="n">
         <v>137.5481178531786</v>
@@ -36837,25 +36837,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L29" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M29" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N29" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O29" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P29" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R29" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J30" t="n">
-        <v>78.83392868379414</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K30" t="n">
         <v>147.568184056346</v>
@@ -36928,7 +36928,7 @@
         <v>227.2619456870027</v>
       </c>
       <c r="P30" t="n">
-        <v>355.5777868327708</v>
+        <v>179.2243903480099</v>
       </c>
       <c r="Q30" t="n">
         <v>111.6129511251842</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K31" t="n">
-        <v>331.3394333377381</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L31" t="n">
-        <v>292.4918771803086</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M31" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N31" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O31" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P31" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J32" t="n">
         <v>137.5481178531786</v>
@@ -37074,25 +37074,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L32" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M32" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N32" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O32" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P32" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R32" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J33" t="n">
-        <v>78.83392868379414</v>
+        <v>78.83392868379416</v>
       </c>
       <c r="K33" t="n">
         <v>147.568184056346</v>
@@ -37162,10 +37162,10 @@
         <v>252.4136035989388</v>
       </c>
       <c r="O33" t="n">
-        <v>227.2619456870027</v>
+        <v>379.9210938440746</v>
       </c>
       <c r="P33" t="n">
-        <v>355.5777868327708</v>
+        <v>179.2243903480099</v>
       </c>
       <c r="Q33" t="n">
         <v>111.6129511251842</v>
@@ -37229,25 +37229,25 @@
         <v>41.75186818889954</v>
       </c>
       <c r="K34" t="n">
-        <v>244.0006676787781</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L34" t="n">
-        <v>489.4670474620819</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M34" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N34" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O34" t="n">
         <v>483.7474269628062</v>
       </c>
       <c r="P34" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J35" t="n">
         <v>137.5481178531786</v>
@@ -37311,25 +37311,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L35" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M35" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N35" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O35" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P35" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R35" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J36" t="n">
-        <v>361.7080325270455</v>
+        <v>78.83392868379416</v>
       </c>
       <c r="K36" t="n">
         <v>147.568184056346</v>
@@ -37399,7 +37399,7 @@
         <v>252.4136035989388</v>
       </c>
       <c r="O36" t="n">
-        <v>227.2619456870027</v>
+        <v>379.9210938440746</v>
       </c>
       <c r="P36" t="n">
         <v>179.2243903480099</v>
@@ -37408,7 +37408,7 @@
         <v>111.6129511251842</v>
       </c>
       <c r="R36" t="n">
-        <v>41.67892262574615</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K37" t="n">
-        <v>331.3394333377381</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L37" t="n">
         <v>489.4670474620819</v>
       </c>
       <c r="M37" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N37" t="n">
-        <v>516.3421944371955</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O37" t="n">
-        <v>384.4642799514277</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P37" t="n">
-        <v>84.3465049862143</v>
+        <v>282.6249759888555</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.27289155637665</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.29459058969374</v>
+        <v>41.29459058969375</v>
       </c>
       <c r="J38" t="n">
         <v>137.5481178531786</v>
@@ -37548,25 +37548,25 @@
         <v>214.4772651269973</v>
       </c>
       <c r="L38" t="n">
-        <v>272.1351201428161</v>
+        <v>272.1351201428162</v>
       </c>
       <c r="M38" t="n">
-        <v>308.0010222300744</v>
+        <v>308.0010222300745</v>
       </c>
       <c r="N38" t="n">
-        <v>313.7421178067911</v>
+        <v>313.7421178067912</v>
       </c>
       <c r="O38" t="n">
         <v>294.0689165268237</v>
       </c>
       <c r="P38" t="n">
-        <v>245.3179736605248</v>
+        <v>245.3179736605249</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R38" t="n">
-        <v>88.54276050160055</v>
+        <v>88.54276050160058</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J39" t="n">
-        <v>78.83392868379414</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K39" t="n">
         <v>147.568184056346</v>
@@ -37636,7 +37636,7 @@
         <v>252.4136035989388</v>
       </c>
       <c r="O39" t="n">
-        <v>510.1360495302543</v>
+        <v>227.2619456870027</v>
       </c>
       <c r="P39" t="n">
         <v>179.2243903480099</v>
@@ -37645,7 +37645,7 @@
         <v>111.6129511251842</v>
       </c>
       <c r="R39" t="n">
-        <v>41.67892262574615</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K40" t="n">
-        <v>331.3394333377381</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L40" t="n">
-        <v>489.4670474620819</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M40" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N40" t="n">
-        <v>264.1565248218781</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O40" t="n">
         <v>483.7474269628062</v>
       </c>
       <c r="P40" t="n">
-        <v>84.3465049862143</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>245.3179736605249</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.3164389519087</v>
+        <v>176.3164389519088</v>
       </c>
       <c r="R41" t="n">
         <v>88.54276050160058</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.06750869052972</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J42" t="n">
-        <v>78.83392868379416</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K42" t="n">
         <v>147.568184056346</v>
@@ -37870,7 +37870,7 @@
         <v>243.6011506468314</v>
       </c>
       <c r="N42" t="n">
-        <v>528.1963979991085</v>
+        <v>252.4136035989388</v>
       </c>
       <c r="O42" t="n">
         <v>227.2619456870027</v>
@@ -37882,7 +37882,7 @@
         <v>111.6129511251842</v>
       </c>
       <c r="R42" t="n">
-        <v>48.770232068828</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>81.55902009125121</v>
       </c>
       <c r="L43" t="n">
-        <v>489.4670474620819</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M43" t="n">
-        <v>528.1963979991085</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N43" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O43" t="n">
         <v>483.7474269628062</v>
       </c>
       <c r="P43" t="n">
-        <v>150.2584115047918</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.06750869052972</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J45" t="n">
-        <v>78.83392868379416</v>
+        <v>231.493076840866</v>
       </c>
       <c r="K45" t="n">
         <v>147.568184056346</v>
       </c>
       <c r="L45" t="n">
-        <v>488.9011857638528</v>
+        <v>206.0270819206015</v>
       </c>
       <c r="M45" t="n">
         <v>243.6011506468314</v>
@@ -38119,7 +38119,7 @@
         <v>111.6129511251842</v>
       </c>
       <c r="R45" t="n">
-        <v>41.67892262574615</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>41.75186818889954</v>
       </c>
       <c r="K46" t="n">
-        <v>244.0006676787786</v>
+        <v>81.55902009125121</v>
       </c>
       <c r="L46" t="n">
-        <v>489.4670474620819</v>
+        <v>306.2280191685579</v>
       </c>
       <c r="M46" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991086</v>
       </c>
       <c r="N46" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371956</v>
       </c>
       <c r="O46" t="n">
         <v>483.7474269628062</v>
       </c>
       <c r="P46" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621431</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637666</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
